--- a/Web platform/assets/exemple_1.xlsx
+++ b/Web platform/assets/exemple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yassine\Desktop\PFE_Repository\Web platform\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38321EA-176F-4BA5-8AF3-B940D15F7C98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AED7ADD-2A02-44F4-8847-1BE8DE9D3A7A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{1654E604-2030-4D65-8EA8-B037148D8204}"/>
   </bookViews>
@@ -25,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date : </t>
   </si>
   <si>
     <t>Courant DC</t>
@@ -43,6 +40,12 @@
   </si>
   <si>
     <t>Statistiques exportés depuis le plateforme                                                                                                                                                                                     Data Logger v2.0</t>
+  </si>
+  <si>
+    <t>Type  des données</t>
+  </si>
+  <si>
+    <t>Date d'enregistrement</t>
   </si>
 </sst>
 </file>
@@ -74,21 +77,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -133,40 +130,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -191,22 +215,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>20706</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFE6633F-14FE-4E85-AB65-675FA6266012}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F642F768-4432-40D6-B785-65392762A042}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -215,7 +239,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -228,8 +252,58 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20706" y="85724"/>
-          <a:ext cx="5456169" cy="476251"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1362075" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>218497</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>62417</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C575AB88-078F-41E6-892C-4524841DA218}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4485697" y="62417"/>
+          <a:ext cx="914977" cy="737683"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -538,83 +612,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7753D55B-2905-4F4A-9530-E0E105168327}">
-  <dimension ref="A4:I10"/>
+  <dimension ref="A5:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="1"/>
-    <col min="4" max="9" width="9.140625" style="2"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="3" width="9.140625" style="2"/>
+    <col min="4" max="9" width="9.140625" style="3"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="5" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="F8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
     </row>
-    <row r="5" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+    <row r="9" spans="1:9" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="7"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:9" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="3" t="s">
+    <row r="10" spans="1:9" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:9" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:9" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="5" t="s">
+      <c r="G11" s="8"/>
+      <c r="H11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="6"/>
+      <c r="I11" s="8"/>
     </row>
-    <row r="10" spans="1:9" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="G10" s="3"/>
+    <row r="12" spans="1:9" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A4:I5"/>
+  <mergeCells count="9">
+    <mergeCell ref="A5:I6"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
